--- a/AdventureWorks_Inventory_Exercise_3.xlsx
+++ b/AdventureWorks_Inventory_Exercise_3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DE027F-C468-42CB-8367-A13AD4CE5AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37A1618-6260-4F10-9795-9C75466BD99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27270" yWindow="-30" windowWidth="23535" windowHeight="12915" firstSheet="1" activeTab="1" xr2:uid="{AEADFC2D-1F78-44C1-909F-B3FC6181F0CC}"/>
+    <workbookView xWindow="-28410" yWindow="-480" windowWidth="23535" windowHeight="12915" firstSheet="1" activeTab="1" xr2:uid="{AEADFC2D-1F78-44C1-909F-B3FC6181F0CC}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductsA" sheetId="1" state="hidden" r:id="rId1"/>
@@ -260,7 +260,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -298,6 +298,13 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -5828,11 +5835,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20082FD7-ECB3-42E9-8674-73C04996FA80}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5877,7 +5885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -5906,7 +5914,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -5935,7 +5943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -5965,7 +5973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -5995,7 +6003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -6003,7 +6011,7 @@
         <f ca="1">TODAY()+2</f>
         <v>45462</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -6025,7 +6033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -6033,7 +6041,7 @@
         <f ca="1">TODAY()+2</f>
         <v>45462</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -6055,7 +6063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6084,7 +6092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -6113,7 +6121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -6143,7 +6151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -6173,7 +6181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -6202,7 +6210,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -6231,7 +6239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -6239,7 +6247,7 @@
         <f ca="1">TODAY()-3</f>
         <v>45457</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -6261,7 +6269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
@@ -6291,14 +6299,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="7">
         <v>44562</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -6320,7 +6328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -6349,7 +6357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -6378,7 +6386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -6407,14 +6415,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="7">
         <v>44593</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -6436,14 +6444,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="7">
         <v>44593</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -6465,7 +6473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
@@ -6494,7 +6502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
@@ -6523,7 +6531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
@@ -6553,7 +6561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
@@ -6583,7 +6591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
@@ -6612,7 +6620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -6641,7 +6649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -6671,7 +6679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>26</v>
       </c>
@@ -6679,7 +6687,7 @@
         <f ca="1">TODAY()-45</f>
         <v>45415</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="15" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -6701,14 +6709,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="7">
         <v>44399</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -6730,7 +6738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>26</v>
       </c>
@@ -6759,7 +6767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -6788,7 +6796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
@@ -6817,14 +6825,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B34" s="7">
         <v>44535</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -6846,14 +6854,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="7">
         <v>44535</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -6875,14 +6883,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="7">
         <v>44579</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -6904,7 +6912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>17</v>
       </c>
@@ -6933,7 +6941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>9</v>
       </c>
@@ -6962,7 +6970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>9</v>
       </c>
@@ -6991,7 +6999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>26</v>
       </c>
@@ -7020,7 +7028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>26</v>
       </c>
@@ -7049,14 +7057,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B42" s="7">
         <v>44574</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -7078,7 +7086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
@@ -7107,7 +7115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>9</v>
       </c>
@@ -7136,7 +7144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>9</v>
       </c>
@@ -7165,7 +7173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>31</v>
       </c>
@@ -7194,7 +7202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>31</v>
       </c>
@@ -7223,14 +7231,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B48" s="7">
         <v>44580</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="16" t="s">
         <v>37</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -7252,14 +7260,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B49" s="7">
         <v>44580</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="16" t="s">
         <v>36</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -7281,7 +7289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>17</v>
       </c>
@@ -7310,7 +7318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>17</v>
       </c>
@@ -7339,7 +7347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>9</v>
       </c>
@@ -7368,7 +7376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>9</v>
       </c>
@@ -7397,7 +7405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>9</v>
       </c>
@@ -7426,14 +7434,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B55" s="7">
         <v>44585</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -7455,7 +7463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>17</v>
       </c>
@@ -7485,7 +7493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>17</v>
       </c>
@@ -7493,7 +7501,7 @@
         <f ca="1">TODAY()-10</f>
         <v>45450</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -7515,7 +7523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>17</v>
       </c>
@@ -7545,7 +7553,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>17</v>
       </c>
@@ -7575,7 +7583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>9</v>
       </c>
@@ -7604,14 +7612,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B61" s="7">
         <v>44558</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="3" t="s">
@@ -7662,14 +7670,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B63" s="7">
         <v>44359</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -7691,7 +7699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>9</v>
       </c>
@@ -7720,7 +7728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>9</v>
       </c>
@@ -7749,7 +7757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>31</v>
       </c>
@@ -7757,7 +7765,7 @@
         <f ca="1">TODAY()+14</f>
         <v>45474</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D66" s="3" t="s">
@@ -7779,7 +7787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>31</v>
       </c>
@@ -7809,7 +7817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>17</v>
       </c>
@@ -7838,7 +7846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>17</v>
       </c>
@@ -7897,7 +7905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>9</v>
       </c>
@@ -7927,7 +7935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>9</v>
       </c>
@@ -7956,7 +7964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>9</v>
       </c>
@@ -7985,7 +7993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>9</v>
       </c>
@@ -8014,7 +8022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>9</v>
       </c>
@@ -8043,14 +8051,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B76" s="7">
         <v>44527</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -8059,27 +8067,27 @@
       <c r="E76" s="5">
         <v>30</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F76" s="17">
         <v>150</v>
       </c>
-      <c r="G76" s="11">
-        <v>0</v>
-      </c>
-      <c r="H76" s="11">
+      <c r="G76" s="17">
+        <v>0</v>
+      </c>
+      <c r="H76" s="17">
         <v>10</v>
       </c>
-      <c r="I76" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I76" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B77" s="7">
         <v>44527</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D77" s="3" t="s">
@@ -8101,7 +8109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>17</v>
       </c>
@@ -8109,7 +8117,7 @@
         <f ca="1">TODAY()+7</f>
         <v>45467</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D78" s="3" t="s">
@@ -8131,7 +8139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>17</v>
       </c>
@@ -8139,7 +8147,7 @@
         <f ca="1">TODAY()+7</f>
         <v>45467</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D79" s="3" t="s">
@@ -8161,7 +8169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>17</v>
       </c>
@@ -8169,7 +8177,7 @@
         <f ca="1">TODAY()+1</f>
         <v>45461</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D80" s="3" t="s">
@@ -8191,7 +8199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>17</v>
       </c>
@@ -8221,7 +8229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>9</v>
       </c>
@@ -8251,7 +8259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>9</v>
       </c>
@@ -8259,7 +8267,7 @@
         <f ca="1">TODAY()-10</f>
         <v>45450</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="3" t="s">
@@ -8281,7 +8289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>9</v>
       </c>
@@ -8289,7 +8297,7 @@
         <f ca="1">TODAY()-9</f>
         <v>45451</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="3" t="s">
@@ -8311,7 +8319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>9</v>
       </c>
@@ -8341,14 +8349,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B86" s="7">
         <v>44367</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="3" t="s">
@@ -8370,7 +8378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>9</v>
       </c>
@@ -8399,7 +8407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>9</v>
       </c>
@@ -8428,7 +8436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>9</v>
       </c>
@@ -8457,14 +8465,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B90" s="7">
         <v>44551</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="3" t="s">
@@ -8486,7 +8494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>9</v>
       </c>
@@ -8515,7 +8523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>9</v>
       </c>
@@ -8523,7 +8531,7 @@
         <f ca="1">TODAY()+2</f>
         <v>45462</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D92" s="3" t="s">
@@ -8545,7 +8553,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>9</v>
       </c>
@@ -8575,14 +8583,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B94" s="7">
         <v>44566</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C94" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D94" s="3" t="s">
@@ -8604,14 +8612,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B95" s="7">
         <v>44566</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C95" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -8633,7 +8641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>26</v>
       </c>
@@ -8663,7 +8671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>26</v>
       </c>
@@ -8693,7 +8701,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>9</v>
       </c>
@@ -8722,7 +8730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>9</v>
       </c>
@@ -8751,7 +8759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>26</v>
       </c>
@@ -8780,7 +8788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>26</v>
       </c>
@@ -8809,7 +8817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>26</v>
       </c>
@@ -8838,7 +8846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>26</v>
       </c>
@@ -8867,7 +8875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>17</v>
       </c>
@@ -8896,7 +8904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>17</v>
       </c>
@@ -8925,7 +8933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>9</v>
       </c>
@@ -8955,7 +8963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>9</v>
       </c>
@@ -8985,7 +8993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>9</v>
       </c>
@@ -9015,7 +9023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>9</v>
       </c>
@@ -9045,7 +9053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>17</v>
       </c>
@@ -9074,7 +9082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>17</v>
       </c>
@@ -9103,7 +9111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>21</v>
       </c>
@@ -9132,7 +9140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>21</v>
       </c>
@@ -9161,7 +9169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>31</v>
       </c>
@@ -9191,7 +9199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>31</v>
       </c>
@@ -9221,7 +9229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>21</v>
       </c>
@@ -9251,7 +9259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>21</v>
       </c>
@@ -9281,7 +9289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>9</v>
       </c>
@@ -9311,7 +9319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>9</v>
       </c>
@@ -9341,7 +9349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>9</v>
       </c>
@@ -9370,7 +9378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>9</v>
       </c>
@@ -9399,7 +9407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>9</v>
       </c>
@@ -9429,7 +9437,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>9</v>
       </c>
@@ -9459,7 +9467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>9</v>
       </c>
@@ -9488,7 +9496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>9</v>
       </c>
@@ -9517,7 +9525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>9</v>
       </c>
@@ -9546,7 +9554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>9</v>
       </c>
@@ -9575,7 +9583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>17</v>
       </c>
@@ -9604,7 +9612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>17</v>
       </c>
@@ -9662,7 +9670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>9</v>
       </c>
@@ -9691,7 +9699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>26</v>
       </c>
@@ -9720,7 +9728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>26</v>
       </c>
@@ -9749,7 +9757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>9</v>
       </c>
@@ -9778,7 +9786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>9</v>
       </c>
@@ -9807,7 +9815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>9</v>
       </c>
@@ -9836,7 +9844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>9</v>
       </c>
@@ -9865,7 +9873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>9</v>
       </c>
@@ -9895,7 +9903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>9</v>
       </c>
@@ -9925,7 +9933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>9</v>
       </c>
@@ -9955,7 +9963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>9</v>
       </c>
@@ -9985,7 +9993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>17</v>
       </c>
@@ -10014,7 +10022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>17</v>
       </c>
@@ -10043,7 +10051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>26</v>
       </c>
@@ -10072,7 +10080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>26</v>
       </c>
@@ -10101,7 +10109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>21</v>
       </c>
@@ -10130,7 +10138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>21</v>
       </c>
@@ -10159,7 +10167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>21</v>
       </c>
@@ -10188,7 +10196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>21</v>
       </c>
@@ -10217,7 +10225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>9</v>
       </c>
@@ -10246,14 +10254,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B151" s="7">
         <v>44543</v>
       </c>
-      <c r="C151" s="10" t="s">
+      <c r="C151" s="16" t="s">
         <v>25</v>
       </c>
       <c r="D151" s="3" t="s">
@@ -10265,44 +10273,38 @@
       <c r="F151" s="13">
         <v>490</v>
       </c>
-      <c r="G151" s="11">
-        <v>0</v>
-      </c>
-      <c r="H151" s="11">
+      <c r="G151" s="17">
+        <v>0</v>
+      </c>
+      <c r="H151" s="17">
         <v>30</v>
       </c>
-      <c r="I151" s="11" t="s">
+      <c r="I151" s="17" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I151" xr:uid="{20082FD7-ECB3-42E9-8674-73C04996FA80}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="A1Mountain"/>
+        <filter val="A2Mountain"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="1130"/>
+        <filter val="520"/>
+        <filter val="690"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="15179a99-4cef-4bac-ab20-a4c03d7ec5db" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2aed4346-8012-4133-9837-e496d0f5c99a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Status xmlns="2aed4346-8012-4133-9837-e496d0f5c99a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006EAC3B332A2FD04E918F9FD72E2B30AC" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d6d948adb3d144107cfe4729b36cffcc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2aed4346-8012-4133-9837-e496d0f5c99a" xmlns:ns3="15179a99-4cef-4bac-ab20-a4c03d7ec5db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9fbc5a941f941688c85ed9188582636e" ns2:_="" ns3:_="">
     <xsd:import namespace="2aed4346-8012-4133-9837-e496d0f5c99a"/>
@@ -10527,10 +10529,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="15179a99-4cef-4bac-ab20-a4c03d7ec5db" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2aed4346-8012-4133-9837-e496d0f5c99a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Status xmlns="2aed4346-8012-4133-9837-e496d0f5c99a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{785F06B9-BE0F-409F-B020-9DC4B81C5F8E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FAD69B5-9809-4B08-8F91-9B86FDACC759}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2aed4346-8012-4133-9837-e496d0f5c99a"/>
+    <ds:schemaRef ds:uri="15179a99-4cef-4bac-ab20-a4c03d7ec5db"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10547,20 +10581,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FAD69B5-9809-4B08-8F91-9B86FDACC759}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{785F06B9-BE0F-409F-B020-9DC4B81C5F8E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2aed4346-8012-4133-9837-e496d0f5c99a"/>
-    <ds:schemaRef ds:uri="15179a99-4cef-4bac-ab20-a4c03d7ec5db"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>